--- a/Fabril Docs Jay/April excel 2018/Nithin Babu & Avi.xlsx
+++ b/Fabril Docs Jay/April excel 2018/Nithin Babu & Avi.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FABRIL\Documents\GitHub\Fabril-Solutions\Fabril Docs Jay\April excel 2018\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="12345"/>
+    <workbookView xWindow="480" yWindow="80" windowWidth="27800" windowHeight="12350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -210,7 +215,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
@@ -361,11 +366,25 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -414,7 +433,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -449,7 +468,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -660,21 +679,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="34.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -837,7 +856,7 @@
       </c>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75">
+    <row r="7" spans="1:9" ht="15.5">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -864,7 +883,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75">
+    <row r="8" spans="1:9" ht="15.5">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -891,7 +910,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75">
+    <row r="9" spans="1:9" ht="15.5">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1348,6 +1367,9 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
@@ -1359,7 +1381,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1371,7 +1393,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
